--- a/bin/Debug/net6.0/notas - ccom 2023.xlsx
+++ b/bin/Debug/net6.0/notas - ccom 2023.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
-    <t>delegado.Delegado</t>
+    <t>name, articles, proactivity, quality, attitude, dpo, final</t>
+  </si>
+  <si>
+    <t>dele.Delegado</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2022 Aspose Pty Ltd.</t>
@@ -476,8 +479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6a93882e-2b53-40a3-9aed-aa098caddbf9}">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147e6107-30af-472f-bfe1-f2c7acad81ae}">
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -488,13 +491,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="2:2" ht="12.75">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="12.75">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="12.75">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0550c330-5760-4e37-a698-1de3267021d2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01466431-5d21-42a2-9b48-8f9ed72dacf1}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -503,7 +521,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
